--- a/PlanilhaCondominos.xlsx
+++ b/PlanilhaCondominos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mathe\OneDrive\Área de Trabalho\AutomacaoBoletosCondominio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97873BD0-7490-468F-A621-C57898A751EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{566148AB-B3EC-4716-9167-105AF79F07CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E3408746-32DB-4CFF-B0A5-2A3A1FEC9D76}"/>
   </bookViews>
@@ -36,10 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
-  <si>
-    <t>Josmar</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
   <si>
     <t>Nome</t>
   </si>
@@ -50,13 +47,13 @@
     <t>Número da Página</t>
   </si>
   <si>
-    <t>+55 32 9987-3361</t>
-  </si>
-  <si>
     <t>Pi</t>
   </si>
   <si>
     <t>+55 32 9904-7067</t>
+  </si>
+  <si>
+    <t>Pi2</t>
   </si>
 </sst>
 </file>
@@ -418,7 +415,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -430,18 +427,18 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -455,7 +452,7 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C3">
         <v>2</v>
